--- a/Outputfile0.xlsx
+++ b/Outputfile0.xlsx
@@ -52,52 +52,55 @@
     <t>American Legion #204</t>
   </si>
   <si>
+    <t>Elks Lodge #270</t>
+  </si>
+  <si>
+    <t>AmVets Daniel Boone Post</t>
+  </si>
+  <si>
+    <t>American Legion Post 42</t>
+  </si>
+  <si>
+    <t>VFW Post 1083</t>
+  </si>
+  <si>
     <t>Knights of Columbus Bingo Hall</t>
   </si>
   <si>
-    <t>AmVets Daniel Boone Post</t>
-  </si>
-  <si>
-    <t>Elks Lodge #270</t>
+    <t>Kindred Hospital Louisville</t>
   </si>
   <si>
     <t>Pastime Grill &amp; Pub</t>
   </si>
   <si>
-    <t>American Legion Post 42</t>
-  </si>
-  <si>
-    <t>VFW Post 1083</t>
-  </si>
-  <si>
-    <t>Kindred Hospital Louisville</t>
-  </si>
-  <si>
     <t>VFW #1832</t>
   </si>
   <si>
+    <t>VFW 6582 Scott County</t>
+  </si>
+  <si>
+    <t>VFW 1427</t>
+  </si>
+  <si>
+    <t>Holiday Inn Louisville Downtown</t>
+  </si>
+  <si>
+    <t>Mill creek VFW Post 542 Louisville</t>
+  </si>
+  <si>
+    <t>Calumet Club</t>
+  </si>
+  <si>
     <t>Pizza Place @ Hikes Point</t>
   </si>
   <si>
-    <t>VFW 6582 Scott County</t>
-  </si>
-  <si>
-    <t>VFW 1427</t>
-  </si>
-  <si>
-    <t>Mill creek VFW Post 542 Louisville</t>
-  </si>
-  <si>
-    <t>Holiday Inn Louisville Downtown</t>
+    <t>Copper Kettle</t>
   </si>
   <si>
     <t>Mac's Hideaway</t>
   </si>
   <si>
-    <t>Calumet Club</t>
-  </si>
-  <si>
-    <t>Copper Kettle</t>
+    <t>Our Lady of Perpetual Hops</t>
   </si>
   <si>
     <t>Hoopsters Jeffersonville</t>
@@ -106,34 +109,31 @@
     <t>Hoosier Hills</t>
   </si>
   <si>
-    <t>Our Lady of Perpetual Hops</t>
-  </si>
-  <si>
     <t>Pride Bar</t>
   </si>
   <si>
+    <t>Krazy Daves</t>
+  </si>
+  <si>
     <t>Pale Moon Tattoo</t>
   </si>
   <si>
-    <t>Krazy Daves</t>
+    <t>Residence Inn Louisville Old Henry</t>
+  </si>
+  <si>
+    <t>American Legion #335</t>
   </si>
   <si>
     <t>Resch's Tavern</t>
   </si>
   <si>
-    <t>American Legion #335</t>
-  </si>
-  <si>
-    <t>Residence Inn Louisville Old Henry</t>
-  </si>
-  <si>
     <t>SCS Festival2</t>
   </si>
   <si>
     <t>Storz Cash Festival</t>
   </si>
   <si>
-    <t>Report ran: 20240718</t>
+    <t>Report ran: 20240719</t>
   </si>
 </sst>
 </file>
@@ -525,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>168360</v>
+        <v>158660</v>
       </c>
       <c r="D3">
-        <v>3140</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>14580</v>
+        <v>14120</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13780</v>
+        <v>13620</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -567,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9780</v>
+        <v>9440</v>
       </c>
       <c r="D6">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9580</v>
+        <v>8060</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8360</v>
+        <v>7880</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7660</v>
+        <v>7420</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>7140</v>
       </c>
       <c r="D10">
-        <v>1160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -637,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6820</v>
+        <v>6800</v>
       </c>
       <c r="D11">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6820</v>
+        <v>6720</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6800</v>
+        <v>6460</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6740</v>
+        <v>6300</v>
       </c>
       <c r="D14">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6620</v>
+        <v>5980</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6520</v>
+        <v>5840</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6160</v>
+        <v>5540</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5020</v>
+        <v>4980</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4340</v>
+        <v>4320</v>
       </c>
       <c r="D19">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4320</v>
+        <v>3920</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3920</v>
+        <v>3620</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3700</v>
+        <v>3580</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3620</v>
+        <v>2980</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3460</v>
+        <v>2960</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2980</v>
+        <v>2940</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2940</v>
+        <v>2900</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2440</v>
+        <v>2320</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -875,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2340</v>
+        <v>2240</v>
       </c>
       <c r="D28">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>2320</v>
+        <v>2120</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -903,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1780</v>
+        <v>1760</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1720</v>
+        <v>1680</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -931,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1680</v>
+        <v>1420</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1600</v>
+        <v>1380</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1440</v>
+        <v>1120</v>
       </c>
       <c r="D34">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1380</v>
+        <v>1100</v>
       </c>
       <c r="D35">
         <v>0</v>
